--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1759694.190248183</v>
+        <v>1704742.300964086</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013174</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.7134668821566</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.477871832047</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>146.4037831917353</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936502</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.4285771158712</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>76.53519509961431</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027437</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>275.7909092801504</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085749</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
@@ -1748,10 +1748,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>79.92751757982531</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>80.39631948615263</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.53519509961433</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254712</v>
+        <v>213.1601523685751</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>173.6168705500061</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
@@ -1973,25 +1973,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484799</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720030162</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>73.35340349906451</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031966</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>87.63319326612886</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184007</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886886</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2225,7 +2225,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>139.7993791557246</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.3534034990644</v>
+        <v>80.39631948615263</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>128.7566170293568</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.73043473151215</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>135.2102631955729</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6320838744857</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.6181368920785</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>218.5797582054724</v>
+        <v>363.7928114478409</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919761908</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>9.382502245122723</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>392.9048207100211</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272723</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>169.4123855012755</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
@@ -2933,13 +2933,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933337</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017023</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>52.42857711587116</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>153.0088728513242</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
@@ -3091,10 +3091,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>44.71332297467538</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -3167,13 +3167,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778873317</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>76.53519509961427</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>298.7289737601255</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594182325</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.87185491821632</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.916258666856974</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>261.6243859509478</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.7132633034003</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734423673</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>119.5351369467588</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6107100818746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440368</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>210.6761282359182</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897531999</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>171.7250058763015</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350706</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640176</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.54448101130058</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>96.95757373023045</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>67.72605627270973</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058774</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058774</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058774</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016787</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5065,28 +5065,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.732642722258</v>
+        <v>1202.964884288889</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1202.964884288889</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>1202.964884288889</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302291</v>
+        <v>1202.964884288889</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302291</v>
+        <v>1202.964884288889</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058774</v>
+        <v>816.8178464924752</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.19376440014</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331037</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="D12" t="n">
-        <v>261.0013738941354</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="E12" t="n">
-        <v>261.0013738941354</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="F12" t="n">
-        <v>100.5736576113795</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="G12" t="n">
-        <v>100.5736576113795</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
-        <v>100.5736576113795</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
@@ -5126,19 +5126,19 @@
         <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676438</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
@@ -5147,25 +5147,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775051</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775051</v>
+        <v>931.2997304396879</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775051</v>
+        <v>661.9011611699792</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391748</v>
+        <v>442.3931667866756</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270752</v>
+        <v>442.3931667866756</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444516</v>
@@ -5229,22 +5229,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U13" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734536</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734536</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734536</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631687</v>
+        <v>916.6244702546006</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631687</v>
+        <v>562.8815436069452</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631687</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631687</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983404</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G14" t="n">
         <v>221.6975439683318</v>
@@ -5278,16 +5278,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427091</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.054059427091</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.054059427091</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631687</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631687</v>
+        <v>916.6244702546006</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022983</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022983</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444515</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444515</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G15" t="n">
         <v>34.31465285444515</v>
@@ -5357,16 +5357,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025866</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443595</v>
+        <v>304.6946924676437</v>
       </c>
       <c r="M15" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207051</v>
       </c>
       <c r="N15" t="n">
         <v>1082.820066520716</v>
@@ -5387,22 +5387,22 @@
         <v>1536.658373288802</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288802</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.085247616349</v>
+        <v>1083.078954384283</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519983</v>
+        <v>839.9992362879175</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502743</v>
+        <v>759.2643700456697</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669706</v>
+        <v>759.2643700456697</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022983</v>
+        <v>533.6236769809974</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444515</v>
+        <v>115.5230563758114</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444515</v>
+        <v>115.5230563758114</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444515</v>
+        <v>115.5230563758114</v>
       </c>
       <c r="E16" t="n">
         <v>34.31465285444515</v>
@@ -5439,16 +5439,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
         <v>315.4306320098955</v>
@@ -5466,22 +5466,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T16" t="n">
-        <v>111.6229307328435</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U16" t="n">
-        <v>111.6229307328435</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V16" t="n">
-        <v>111.6229307328435</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W16" t="n">
-        <v>111.6229307328435</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444515</v>
+        <v>115.5230563758114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L17" t="n">
         <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
@@ -5536,31 +5536,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1500.419357501474</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>1159.109798081508</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>795.6929149555422</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>409.5458771591282</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529294</v>
+        <v>532.7174666229282</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529294</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="D18" t="n">
-        <v>344.2114027139611</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2114027139611</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F18" t="n">
         <v>183.7836864312052</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889813</v>
       </c>
       <c r="L18" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186984</v>
+        <v>679.5863020207051</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P18" t="n">
         <v>1625.19346494006</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R18" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.67605932784</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="X18" t="n">
-        <v>909.1680649445368</v>
+        <v>532.7174666229282</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798644</v>
+        <v>532.7174666229282</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K19" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O19" t="n">
         <v>315.4306320098955</v>
@@ -5694,31 +5694,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R19" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>34.52688262414517</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T19" t="n">
-        <v>34.52688262414517</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U19" t="n">
-        <v>34.52688262414517</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V19" t="n">
-        <v>34.52688262414517</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D20" t="n">
         <v>863.2013285178008</v>
@@ -5752,22 +5752,22 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602979</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
         <v>253.8975067193749</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P20" t="n">
         <v>1650.639799716935</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210148</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210148</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210148</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210148</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210148</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.14864459367755</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="C21" t="n">
-        <v>73.14864459367755</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444515</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444515</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444515</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444515</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444515</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889813</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443594</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M21" t="n">
-        <v>873.305863297421</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.95310056761</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722257</v>
@@ -5861,22 +5861,22 @@
         <v>1448.884598007116</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007116</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334663</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382973</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685886</v>
+        <v>482.8268917365232</v>
       </c>
       <c r="X21" t="n">
-        <v>477.325190585285</v>
+        <v>341.6153976398317</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206126</v>
+        <v>115.9747045751594</v>
       </c>
     </row>
     <row r="22">
@@ -5913,10 +5913,10 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514567</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
         <v>180.6961586662943</v>
@@ -5925,34 +5925,34 @@
         <v>262.1720788316462</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231971</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231971</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444515</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444515</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444515</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444515</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y22" t="n">
         <v>34.31465285444515</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>1194.933065882493</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>841.1901392348379</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>500.0061395962245</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444515</v>
+        <v>500.0061395962245</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444515</v>
+        <v>500.0061395962245</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444515</v>
+        <v>500.0061395962245</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444515</v>
+        <v>164.3718417729874</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602968</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193748</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210148</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295157</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1194.933065882493</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1194.933065882493</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>1194.933065882493</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>1194.933065882493</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633862</v>
+        <v>384.5070433604496</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963499</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963499</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963499</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963499</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444515</v>
@@ -6068,25 +6068,25 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025866</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443595</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M24" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029025</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722257</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C25" t="n">
         <v>34.31465285444515</v>
@@ -6150,16 +6150,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K25" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O25" t="n">
         <v>315.4306320098955</v>
@@ -6174,25 +6174,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="T25" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="U25" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="V25" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.1022874054274</v>
+        <v>809.0541084987426</v>
       </c>
       <c r="C26" t="n">
-        <v>255.1022874054274</v>
+        <v>809.0541084987426</v>
       </c>
       <c r="D26" t="n">
-        <v>255.1022874054274</v>
+        <v>809.0541084987426</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1022874054274</v>
+        <v>809.0541084987426</v>
       </c>
       <c r="F26" t="n">
-        <v>255.1022874054274</v>
+        <v>401.7821391653956</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887603044</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193756</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295158</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759913</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313932</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313932</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="X26" t="n">
-        <v>255.1022874054274</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.1022874054274</v>
+        <v>809.0541084987426</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.6782042885481</v>
+        <v>125.4519795702328</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>125.4519795702328</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>125.4519795702328</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>125.4519795702328</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384283</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062328</v>
+        <v>839.9992362879175</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365241</v>
+        <v>570.6006670182088</v>
       </c>
       <c r="X27" t="n">
-        <v>263.3188973532204</v>
+        <v>351.0926726349052</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.6782042885481</v>
+        <v>125.4519795702328</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O28" t="n">
         <v>315.4306320098955</v>
@@ -6408,28 +6408,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655664</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655664</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655664</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655663</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>431.1882091271938</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>431.1882091271938</v>
       </c>
       <c r="D29" t="n">
-        <v>455.9293591844538</v>
+        <v>431.1882091271938</v>
       </c>
       <c r="E29" t="n">
-        <v>455.9293591844538</v>
+        <v>431.1882091271938</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389726</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505315</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.666194286149</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>809.0541084987426</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>394.8505488399415</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>205.4382745729052</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>205.4382745729052</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098233</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628848</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384283</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062328</v>
+        <v>839.9992362879175</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>839.9992362879175</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>620.4912419046138</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>394.8505488399415</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O31" t="n">
         <v>315.4306320098955</v>
@@ -6642,31 +6642,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S31" t="n">
-        <v>258.475718923377</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T31" t="n">
-        <v>258.475718923377</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>258.475718923377</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444516</v>
+        <v>1139.050666958493</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444516</v>
+        <v>1139.050666958493</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444516</v>
+        <v>797.86666731988</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444516</v>
+        <v>797.86666731988</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444516</v>
+        <v>797.86666731988</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444516</v>
+        <v>376.2519609898713</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K32" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O32" t="n">
         <v>1460.632785841149</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759908</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313928</v>
+        <v>1139.050666958493</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114262</v>
+        <v>1139.050666958493</v>
       </c>
       <c r="X32" t="n">
-        <v>34.31465285444516</v>
+        <v>1139.050666958493</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444516</v>
+        <v>1139.050666958493</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>550.1564916546217</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>550.1564916546217</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>389.3763754156535</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312053</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312053</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889814</v>
+        <v>215.5091216889813</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676443</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207058</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025987</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062328</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062328</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>775.7971847192941</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>550.1564916546217</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O34" t="n">
         <v>315.4306320098955</v>
@@ -6879,31 +6879,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T34" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328434</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>1132.907021630678</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>1132.907021630678</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>1132.907021630678</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>757.6757973259947</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M35" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
@@ -6970,19 +6970,19 @@
         <v>1519.054059427092</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207926</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V35" t="n">
-        <v>942.3720836633275</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>1132.907021630678</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
         <v>34.31465285444516</v>
@@ -7016,52 +7016,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443595</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M36" t="n">
-        <v>873.305863297421</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1661.316627653352</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288802</v>
+        <v>1482.242358219897</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288802</v>
+        <v>1268.236064987831</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.085247616349</v>
+        <v>1028.662939315378</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519983</v>
+        <v>1028.662939315378</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>759.2643700456697</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>759.2643700456697</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>533.6236769809974</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F37" t="n">
         <v>34.31465285444516</v>
@@ -7098,16 +7098,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L37" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N37" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O37" t="n">
         <v>315.4306320098955</v>
@@ -7128,19 +7128,19 @@
         <v>334.857675380022</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015927</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015927</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015927</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015927</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015927</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7174,7 +7174,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
         <v>253.897506719375</v>
@@ -7183,10 +7183,10 @@
         <v>525.5283691389719</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
@@ -7201,25 +7201,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>684.7287471669681</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>298.5817093705541</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.30403408289</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158537</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768854</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396982999</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F39" t="n">
         <v>183.7836864312052</v>
@@ -7253,52 +7253,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440572</v>
+        <v>1594.990080149774</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1380.983786917709</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440572</v>
+        <v>1141.410661245256</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344206</v>
+        <v>898.3309431488899</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>628.9323738791812</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>409.4243794958776</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.8398870098251</v>
+        <v>183.7836864312052</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="C40" t="n">
-        <v>1555.519804255718</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="D40" t="n">
-        <v>1555.519804255718</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.519804255718</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
         <v>34.31465285444516</v>
@@ -7417,46 +7417,46 @@
         <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
         <v>856.6460009292779</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O41" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>1502.928472786987</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>1139.511589661021</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>753.3645518646074</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>773.2466601647274</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>599.7870582694733</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>439.006942030505</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H42" t="n">
         <v>115.9747045751594</v>
@@ -7490,25 +7490,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M42" t="n">
-        <v>873.305863297421</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1536.658373288802</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1322.652080056737</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056737</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056737</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787028</v>
+        <v>992.754654548031</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787028</v>
+        <v>773.2466601647274</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787028</v>
+        <v>773.2466601647274</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.0886035251701</v>
+        <v>473.449734320419</v>
       </c>
       <c r="C44" t="n">
-        <v>306.0886035251701</v>
+        <v>473.449734320419</v>
       </c>
       <c r="D44" t="n">
-        <v>306.0886035251701</v>
+        <v>473.449734320419</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>473.449734320419</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>66.17776498707201</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>66.17776498707201</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444516</v>
+        <v>66.17776498707201</v>
       </c>
       <c r="I44" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603022</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193754</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
         <v>1715.732642722258</v>
@@ -7675,25 +7675,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741551</v>
+        <v>836.8666174463848</v>
       </c>
       <c r="W44" t="n">
-        <v>692.2356413215841</v>
+        <v>836.8666174463848</v>
       </c>
       <c r="X44" t="n">
-        <v>692.2356413215841</v>
+        <v>473.449734320419</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0886035251701</v>
+        <v>473.449734320419</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220387</v>
+        <v>697.3716014751099</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550024</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="D45" t="n">
-        <v>395.7793506160341</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="E45" t="n">
-        <v>222.2161467374486</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F45" t="n">
-        <v>222.2161467374486</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G45" t="n">
-        <v>153.8059888862266</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7730,22 +7730,22 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3144331656368</v>
+        <v>304.6946924676438</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186984</v>
+        <v>679.5863020207054</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7754,25 +7754,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007116</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053423</v>
+        <v>875.9074544020449</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220387</v>
+        <v>875.9074544020449</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220387</v>
+        <v>875.9074544020449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169534</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
   </sheetData>
@@ -8774,13 +8774,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489842002</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,16 +9008,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491699</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>207.3553107283657</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9245,13 +9245,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880648</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9260,7 +9260,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504032</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9491,16 +9491,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>114.9375340526875</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890782</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9725,10 +9725,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>217.851896220399</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315044</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
         <v>210.0462273461148</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9968,7 +9968,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2735498630453</v>
+        <v>79.8440828702073</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K30" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,16 +10202,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850218</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5711743638673</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10433,7 +10433,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470698</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10442,7 +10442,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
-        <v>255.2227828913207</v>
+        <v>59.54645836938573</v>
       </c>
       <c r="P33" t="n">
         <v>206.3638740786793</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10673,7 +10673,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203995</v>
       </c>
       <c r="N36" t="n">
         <v>310.6138585746227</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674435</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10831,7 +10831,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>291.2847697033556</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476181</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>10.68754955674412</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315042</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11378,10 +11378,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470651</v>
       </c>
       <c r="M45" t="n">
         <v>301.77688131</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245539</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23266,7 +23266,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947951</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>7.686100613794764</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
@@ -23320,7 +23320,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>1.570560049257182</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>15.24703649414204</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947584</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
         <v>74.58429473553586</v>
@@ -23469,13 +23469,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23484,7 +23484,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>140.6060777145541</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064083</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>106.4946581382995</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28.90770316800365</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>186.7770659971863</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>61.27982172607236</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23718,10 +23718,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.3842603086282</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -23749,7 +23749,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23782,25 +23782,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836808</v>
+        <v>107.7196312405769</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>13.90128097435985</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.4582282608805</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23952,10 +23952,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.1005996173323</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>148.566051909178</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746367</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>162.4021791308457</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>120.7266632547385</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -24068,7 +24068,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350707</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>77.51353528374605</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343997</v>
+        <v>208.2250141473115</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24195,7 +24195,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -24223,10 +24223,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>56.75244517339092</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776399</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>41.54023120209285</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -24299,7 +24299,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>30.3422593665068</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
-        <v>224.1841888012565</v>
+        <v>148.566051909178</v>
       </c>
       <c r="T25" t="n">
         <v>221.0023972007068</v>
@@ -24426,10 +24426,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609866</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24454,10 +24454,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612361</v>
+        <v>53.6057478188676</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>184.188235604604</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24533,7 +24533,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>149.4409368748056</v>
       </c>
       <c r="G27" t="n">
         <v>147.9743432409925</v>
@@ -24542,7 +24542,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H28" t="n">
-        <v>160.0829940331247</v>
+        <v>36.93959365311477</v>
       </c>
       <c r="I28" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>165.4779332534541</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>10.29442892999236</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818798</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.415186338524222</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836779</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7093479362395</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>236.192756517593</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24922,7 +24922,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>179.2690819936805</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>119.3167056202949</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -25004,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>127.1142488651243</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605973</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805156</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>213.7755119897211</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25159,22 +25159,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>104.470275879888</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315846</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350706</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>33.02418261065252</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>252.3795734454835</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981111</v>
+        <v>19.00621058309372</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25323,7 +25323,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>112.4628544268855</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25402,10 +25402,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25441,13 +25441,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.0694509913058</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855047</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>57.74838979236223</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>7.846470890097748</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,13 +25560,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0829940331247</v>
+        <v>40.16232239777175</v>
       </c>
       <c r="I40" t="n">
         <v>145.433169315347</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337965</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
         <v>185.5090622027478</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25684,19 +25684,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>127.2203355898487</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446584</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>15.79314564806438</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1841888012565</v>
+        <v>101.0407884212465</v>
       </c>
       <c r="T43" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25873,10 +25873,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976185</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>417.3985592667085</v>
@@ -25885,7 +25885,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>153.9645811914472</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>90.56057779413547</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.24828696828276</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -26034,13 +26034,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26070,10 +26070,10 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
-        <v>224.1841888012565</v>
+        <v>65.57347871938211</v>
       </c>
       <c r="T46" t="n">
         <v>221.0023972007068</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557069.7157624423</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557069.7157624421</v>
+        <v>557069.7157624422</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>557069.7157624423</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>557069.7157624421</v>
+        <v>557069.7157624422</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>557069.715762442</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>557069.7157624422</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>557069.7157624422</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>557069.7157624422</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557069.7157624423</v>
+        <v>557069.7157624421</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="E2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="F2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893951</v>
       </c>
       <c r="G2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="H2" t="n">
         <v>375693.1876893952</v>
       </c>
       <c r="I2" t="n">
+        <v>375693.1876893951</v>
+      </c>
+      <c r="J2" t="n">
+        <v>375693.1876893949</v>
+      </c>
+      <c r="K2" t="n">
         <v>375693.1876893952</v>
-      </c>
-      <c r="J2" t="n">
-        <v>375693.1876893954</v>
-      </c>
-      <c r="K2" t="n">
-        <v>375693.1876893953</v>
       </c>
       <c r="L2" t="n">
         <v>375693.1876893952</v>
       </c>
       <c r="M2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893951</v>
       </c>
       <c r="N2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="O2" t="n">
-        <v>375693.1876893951</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="P2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893954</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742393</v>
+        <v>106891.8593742394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>435522.6386213153</v>
+        <v>435522.6386213152</v>
       </c>
       <c r="C4" t="n">
         <v>435522.6386213153</v>
       </c>
       <c r="D4" t="n">
-        <v>435522.6386213153</v>
+        <v>435522.6386213152</v>
       </c>
       <c r="E4" t="n">
         <v>56467.20191492156</v>
@@ -26441,7 +26441,7 @@
         <v>56467.20191492156</v>
       </c>
       <c r="J4" t="n">
-        <v>56467.20191492157</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="K4" t="n">
         <v>56467.20191492156</v>
@@ -26456,7 +26456,7 @@
         <v>56467.20191492156</v>
       </c>
       <c r="O4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="P4" t="n">
         <v>56467.20191492156</v>
@@ -26484,7 +26484,7 @@
         <v>36091.33751189044</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="H5" t="n">
         <v>36091.33751189044</v>
@@ -26493,13 +26493,13 @@
         <v>36091.33751189044</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189045</v>
@@ -26508,10 +26508,10 @@
         <v>36091.33751189045</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192298.7577610295</v>
+        <v>192254.0939189776</v>
       </c>
       <c r="C6" t="n">
-        <v>192298.7577610292</v>
+        <v>192254.0939189777</v>
       </c>
       <c r="D6" t="n">
-        <v>192298.7577610294</v>
+        <v>192254.0939189777</v>
       </c>
       <c r="E6" t="n">
-        <v>-213918.5035549091</v>
+        <v>-223488.3610200595</v>
       </c>
       <c r="F6" t="n">
-        <v>283134.6482625833</v>
+        <v>273564.7907974328</v>
       </c>
       <c r="G6" t="n">
-        <v>283134.6482625834</v>
+        <v>273564.7907974329</v>
       </c>
       <c r="H6" t="n">
-        <v>283134.6482625832</v>
+        <v>273564.7907974329</v>
       </c>
       <c r="I6" t="n">
-        <v>283134.6482625832</v>
+        <v>273564.7907974328</v>
       </c>
       <c r="J6" t="n">
-        <v>283134.6482625834</v>
+        <v>273564.7907974326</v>
       </c>
       <c r="K6" t="n">
-        <v>283134.6482625833</v>
+        <v>273564.7907974329</v>
       </c>
       <c r="L6" t="n">
-        <v>283134.6482625831</v>
+        <v>273564.7907974329</v>
       </c>
       <c r="M6" t="n">
-        <v>176242.788888344</v>
+        <v>166672.9314231935</v>
       </c>
       <c r="N6" t="n">
-        <v>283134.6482625833</v>
+        <v>273564.7907974329</v>
       </c>
       <c r="O6" t="n">
-        <v>283134.6482625831</v>
+        <v>273564.7907974329</v>
       </c>
       <c r="P6" t="n">
-        <v>283134.6482625833</v>
+        <v>273564.7907974331</v>
       </c>
     </row>
   </sheetData>
@@ -26749,28 +26749,28 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409235</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="N3" t="n">
         <v>459.2752909409236</v>
@@ -26804,7 +26804,7 @@
         <v>428.9331606805644</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="H4" t="n">
         <v>428.9331606805644</v>
@@ -26813,13 +26813,13 @@
         <v>428.9331606805644</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805645</v>
@@ -26828,10 +26828,10 @@
         <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805643</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J14" t="n">
         <v>156.7051908522501</v>
@@ -32004,10 +32004,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
         <v>329.4457823148396</v>
@@ -32022,13 +32022,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H15" t="n">
         <v>9.54079425143315</v>
@@ -32077,7 +32077,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32101,7 +32101,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
@@ -32110,7 +32110,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
         <v>126.7373929903044</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J17" t="n">
         <v>156.7051908522501</v>
@@ -32241,10 +32241,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N17" t="n">
         <v>329.4457823148396</v>
@@ -32259,13 +32259,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H18" t="n">
         <v>9.54079425143315</v>
@@ -32314,7 +32314,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
@@ -32338,7 +32338,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
@@ -32347,7 +32347,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N19" t="n">
         <v>126.7373929903044</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
         <v>291.3651677393358</v>
@@ -32484,7 +32484,7 @@
         <v>324.1998891675595</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
         <v>311.086310257377</v>
@@ -32493,13 +32493,13 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
         <v>115.979704500775</v>
       </c>
       <c r="S20" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T20" t="n">
         <v>8.0823219541463</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433148</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
         <v>93.33253813357014</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
         <v>214.4945592267021</v>
@@ -32563,13 +32563,13 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q21" t="n">
         <v>126.1013968636287</v>
@@ -32581,7 +32581,7 @@
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
         <v>0.0649917864539043</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315138</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32648,19 +32648,19 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
         <v>0.04517461878107449</v>
@@ -32706,7 +32706,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J23" t="n">
         <v>156.7051908522501</v>
@@ -32715,10 +32715,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N23" t="n">
         <v>329.4457823148396</v>
@@ -32733,13 +32733,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H24" t="n">
         <v>9.54079425143315</v>
@@ -32788,7 +32788,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32812,7 +32812,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
@@ -32821,7 +32821,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M25" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N25" t="n">
         <v>126.7373929903044</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522501</v>
@@ -32952,10 +32952,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N26" t="n">
         <v>329.4457823148396</v>
@@ -32970,13 +32970,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H27" t="n">
         <v>9.54079425143315</v>
@@ -33025,7 +33025,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33049,7 +33049,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
@@ -33058,7 +33058,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H28" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N28" t="n">
         <v>126.7373929903044</v>
@@ -33137,7 +33137,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522501</v>
@@ -33189,10 +33189,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N29" t="n">
         <v>329.4457823148396</v>
@@ -33207,13 +33207,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H30" t="n">
         <v>9.54079425143315</v>
@@ -33262,7 +33262,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33286,7 +33286,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
@@ -33295,7 +33295,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H31" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N31" t="n">
         <v>126.7373929903044</v>
@@ -33374,7 +33374,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522501</v>
@@ -33426,10 +33426,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N32" t="n">
         <v>329.4457823148396</v>
@@ -33444,13 +33444,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H33" t="n">
         <v>9.54079425143315</v>
@@ -33499,7 +33499,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33523,7 +33523,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
@@ -33532,7 +33532,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H34" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N34" t="n">
         <v>126.7373929903044</v>
@@ -33611,7 +33611,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522501</v>
@@ -33663,10 +33663,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N35" t="n">
         <v>329.4457823148396</v>
@@ -33681,13 +33681,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H36" t="n">
         <v>9.54079425143315</v>
@@ -33736,7 +33736,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33760,7 +33760,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
@@ -33769,7 +33769,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H37" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N37" t="n">
         <v>126.7373929903044</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.0864351299621</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>303.0842232378716</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
@@ -35655,7 +35655,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N14" t="n">
         <v>332.9626517459644</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>252.8135266236212</v>
       </c>
       <c r="M15" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
@@ -35746,7 +35746,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
@@ -35892,7 +35892,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N17" t="n">
         <v>332.9626517459644</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>183.0020689660057</v>
       </c>
       <c r="N18" t="n">
         <v>407.306832828294</v>
@@ -35980,10 +35980,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>45.40379396119663</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
         <v>277.1250097811782</v>
@@ -36141,7 +36141,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936592</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36211,16 +36211,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>211.6305083063588</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085353</v>
+        <v>147.6309385189343</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151261</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M22" t="n">
         <v>76.00912912692037</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144089</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
@@ -36366,7 +36366,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N23" t="n">
         <v>332.9626517459644</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36445,10 +36445,10 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>294.75340839834</v>
       </c>
       <c r="N24" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36457,7 +36457,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M25" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119725</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
@@ -36603,7 +36603,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N26" t="n">
         <v>332.9626517459644</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
@@ -36688,13 +36688,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584861</v>
+        <v>140.9172939656481</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M28" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
@@ -36840,7 +36840,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N29" t="n">
         <v>332.9626517459644</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36922,16 +36922,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>323.3818477386931</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593081</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M31" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
@@ -37077,7 +37077,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N32" t="n">
         <v>332.9626517459644</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>90.08643512996257</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M33" t="n">
         <v>378.6783934879409</v>
@@ -37162,13 +37162,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O33" t="n">
-        <v>316.2959939867616</v>
+        <v>120.6196694648265</v>
       </c>
       <c r="P33" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M34" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
@@ -37314,7 +37314,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N35" t="n">
         <v>332.9626517459644</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>162.7270914936593</v>
@@ -37393,7 +37393,7 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M36" t="n">
-        <v>378.6783934879409</v>
+        <v>294.7534083983404</v>
       </c>
       <c r="N36" t="n">
         <v>407.306832828294</v>
@@ -37402,10 +37402,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87959908660044</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M37" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N38" t="n">
         <v>332.9626517459644</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37633,7 +37633,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N39" t="n">
-        <v>211.630508306359</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>162.7270914936593</v>
@@ -37876,10 +37876,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87959908660021</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119702</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38098,10 +38098,10 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>90.0864351299621</v>
       </c>
       <c r="M45" t="n">
         <v>378.6783934879409</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323635</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
